--- a/Tools/KitesMatlab/KiteParameters/power_objective.xlsx
+++ b/Tools/KitesMatlab/KiteParameters/power_objective.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memaceda\Stuff for Victor From Ben\Saved Results\1_22_24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\OceanPortfolioOptimization\OceanPortfolioOptimization\Tools\KitesMatlab\KiteParameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA9F75-66AD-4C09-9651-3697DCA3317B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -86,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,11 +443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,19 +1101,24 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>0.49658432315799778</v>
+        <f>((66028/200*B3+88644)*2*0.082+293.673*B3)/(365*24*B3)</f>
+        <v>0.12760621915636425</v>
       </c>
       <c r="C45">
-        <v>6.2073040394749722E-2</v>
+        <f t="shared" ref="C45:F45" si="0">((66028/200*C3+88644)*2*0.082+293.673*C3)/(365*24*C3)</f>
+        <v>5.069266837628069E-2</v>
       </c>
       <c r="D45">
-        <v>1.8475521430632916E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2960618297859597E-2</v>
       </c>
       <c r="E45">
-        <v>7.8413346758209879E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.1078474528770247E-2</v>
       </c>
       <c r="F45">
-        <v>4.0487383034191237E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.0408227871972374E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1118,19 +1126,24 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>0.63727634849921311</v>
+        <f t="shared" ref="B46:F48" si="1">((66028/200*B4+88644)*2*0.082+293.673*B4)/(365*24*B4)</f>
+        <v>0.15251034400812435</v>
       </c>
       <c r="C46">
-        <v>7.9659543562401638E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.3805683982750707E-2</v>
       </c>
       <c r="D46">
-        <v>2.3662366234039344E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.3882993292369221E-2</v>
       </c>
       <c r="E46">
-        <v>1.0032796374355639E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1467601479578994E-2</v>
       </c>
       <c r="F46">
-        <v>5.1702097953913355E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.0607460870786455E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1138,19 +1151,24 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>0.75159972964163591</v>
+        <f t="shared" si="1"/>
+        <v>0.17274691214722981</v>
       </c>
       <c r="C47">
-        <v>9.3949966205204488E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.633525500013889E-2</v>
       </c>
       <c r="D47">
-        <v>2.7879158632300186E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.4632495816039799E-2</v>
       </c>
       <c r="E47">
-        <v>1.1808918107604521E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1783797856752528E-2</v>
       </c>
       <c r="F47">
-        <v>6.0795343050539432E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.0769353415899295E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,19 +1176,24 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>0.8535396308389015</v>
+        <f t="shared" si="1"/>
+        <v>0.19079146030577479</v>
       </c>
       <c r="C48">
-        <v>0.10669245385486269</v>
+        <f t="shared" si="1"/>
+        <v>5.8590823519957001E-2</v>
       </c>
       <c r="D48">
-        <v>3.1644476215091415E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.530081241450442E-2</v>
       </c>
       <c r="E48">
-        <v>1.3397111753085177E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.2065743921729778E-2</v>
       </c>
       <c r="F48">
-        <v>6.8937702963222762E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.0913709801167659E-2</v>
       </c>
     </row>
   </sheetData>
